--- a/biology/Médecine/1293_en_santé_et_médecine/1293_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1293_en_santé_et_médecine/1293_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1293_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1293_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1293 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1293_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1293_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Marguerite de Bourgogne, veuve de Charles d'Anjou, fonde l'hospice Notre-Dame des Fontenilles, qui deviendra l'hôtel-Dieu de Tonnerre, afin qu'y soient accomplies « les sept œuvres de miséricorde[1] ».
-Yves de Tréguier, alors recteur de Louannec, dans le Penthièvre, fait construire le refuge de Crech-Martin à Minihy-Tréguier[2].
-Fondation de l'hôpital Saint-Jacques de Seyne, en Provence[3].
-Une commission est créée à Sienne en Toscane,  « qui a pour tâche de contrôler le confort et le prix des « stazioni » [stations thermales], et s'assurer qu'aucun bâtiment n'encombre le lit de la Farma (it) ou de la Merse (it)[4] ».
-En Flandre, les échevins de Bruges et le chapitre de Lille « n'autorisent l'exercice de la médecine, voire un intérêt pour cette discipline, qu'à ceux qui l'ont étudiée dans le siècle et en sont suffisamment instruits[5] ».
-Reconnu dès 1266, l'Arte dei Medici e Speziali, « corporation des médecins et des apothicaires de Florence », est qualifié d'« art majeur » et ses statuts, établis en 1314, « autoris[eront] les apothicaires à avoir dans leur boutique des médecins pour soigner les malades[6] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Marguerite de Bourgogne, veuve de Charles d'Anjou, fonde l'hospice Notre-Dame des Fontenilles, qui deviendra l'hôtel-Dieu de Tonnerre, afin qu'y soient accomplies « les sept œuvres de miséricorde ».
+Yves de Tréguier, alors recteur de Louannec, dans le Penthièvre, fait construire le refuge de Crech-Martin à Minihy-Tréguier.
+Fondation de l'hôpital Saint-Jacques de Seyne, en Provence.
+Une commission est créée à Sienne en Toscane,  « qui a pour tâche de contrôler le confort et le prix des « stazioni » [stations thermales], et s'assurer qu'aucun bâtiment n'encombre le lit de la Farma (it) ou de la Merse (it) ».
+En Flandre, les échevins de Bruges et le chapitre de Lille « n'autorisent l'exercice de la médecine, voire un intérêt pour cette discipline, qu'à ceux qui l'ont étudiée dans le siècle et en sont suffisamment instruits ».
+Reconnu dès 1266, l'Arte dei Medici e Speziali, « corporation des médecins et des apothicaires de Florence », est qualifié d'« art majeur » et ses statuts, établis en 1314, « autoris[eront] les apothicaires à avoir dans leur boutique des médecins pour soigner les malades ».</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1293_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1293_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1293-1302 : fl. Guillaume de Saint-Domnin[7], médecin de Charles II, roi de Naples, et Renaud[8], barbier de Robert d'Artois.</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1293-1302 : fl. Guillaume de Saint-Domnin, médecin de Charles II, roi de Naples, et Renaud, barbier de Robert d'Artois.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1293_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1293_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Jacopo Dondi (mort en 1359), médecin, astronome et ingénieur italien, père de Giovanni Dondi[9].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jacopo Dondi (mort en 1359), médecin, astronome et ingénieur italien, père de Giovanni Dondi.</t>
         </is>
       </c>
     </row>
